--- a/tool/3_公式/date.xlsx
+++ b/tool/3_公式/date.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="238" yWindow="106" windowWidth="14810" windowHeight="8019"/>
   </bookViews>
   <sheets>
     <sheet name="date" sheetId="13" r:id="rId1"/>
@@ -31,12 +31,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -51,9 +57,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -358,133 +366,234 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C14"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B1" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E1" s="3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>44197</v>
       </c>
-      <c r="B2" s="1">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="B2">
         <f>+INT((A2-$A$2+12)/7)-1</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1">
+        <v>44562</v>
+      </c>
+      <c r="E2">
+        <f>+INT((D2-$D$2+12)/7)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>44198</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C12" si="0">+INT((A3-$A$2+12)/7)-1</f>
+      <c r="B3">
+        <f>+INT((A3-$A$2+12)/7)-1</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1">
+        <v>44563</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E9" si="0">+INT((D3-$D$2+12)/7)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>44199</v>
       </c>
-      <c r="C4">
+      <c r="B4">
+        <f>+INT((A4-$A$2+12)/7)-1</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44564</v>
+      </c>
+      <c r="E4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>44200</v>
       </c>
-      <c r="C5">
+      <c r="B5">
+        <f>+INT((A5-$A$2+12)/7)-1</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44565</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>44201</v>
       </c>
-      <c r="C6">
+      <c r="B6">
+        <f>+INT((A6-$A$2+12)/7)-1</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44566</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>44202</v>
       </c>
-      <c r="C7">
+      <c r="B7">
+        <f>+INT((A7-$A$2+12)/7)-1</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44567</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>44203</v>
       </c>
-      <c r="C8">
+      <c r="B8">
+        <f>+INT((A8-$A$2+12)/7)-1</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44568</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>44204</v>
       </c>
-      <c r="C9">
+      <c r="B9">
+        <f>+INT((A9-$A$2+12)/7)-1</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>44569</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>44228</v>
       </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
+      <c r="B10">
+        <f>+INT((A10-$A$2+12)/7)-1</f>
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>44256</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
+      <c r="B11">
+        <f>+INT((A11-$A$2+12)/7)-1</f>
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>44278</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
+      <c r="B12">
+        <f>+INT((A12-$A$2+12)/7)-1</f>
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>44278</v>
       </c>
-      <c r="C13">
-        <f t="shared" ref="C13:C14" si="1">+INT((A13-$A$2+12)/7)-1</f>
+      <c r="B13">
+        <f>+INT((A13-$A$2+12)/7)-1</f>
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>44334</v>
       </c>
-      <c r="C14">
-        <f t="shared" si="1"/>
+      <c r="B14">
+        <f>+INT((A14-$A$2+12)/7)-1</f>
         <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B15">
+        <f>+INT((A15-$A$2+12)/7)-1</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>44453</v>
+      </c>
+      <c r="B16">
+        <f>+INT((A16-$A$2+12)/7)-1</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <f ca="1">TODAY()</f>
+        <v>44578</v>
+      </c>
+      <c r="B17">
+        <f ca="1">+INT((A17-$A$2+12)/7)-1</f>
+        <v>55</v>
+      </c>
+      <c r="D17" s="2">
+        <f ca="1">TODAY()</f>
+        <v>44578</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17" ca="1" si="1">+INT((D17-$D$2+12)/7)-1</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/tool/3_公式/date.xlsx
+++ b/tool/3_公式/date.xlsx
@@ -11,6 +11,10 @@
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -57,11 +61,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -367,10 +372,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.15"/>
@@ -392,7 +397,7 @@
         <v>44197</v>
       </c>
       <c r="B2">
-        <f>+INT((A2-$A$2+12)/7)-1</f>
+        <f t="shared" ref="B2:B17" si="0">+INT((A2-$A$2+12)/7)-1</f>
         <v>0</v>
       </c>
       <c r="D2" s="1">
@@ -408,14 +413,14 @@
         <v>44198</v>
       </c>
       <c r="B3">
-        <f>+INT((A3-$A$2+12)/7)-1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D3" s="1">
         <v>44563</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E9" si="0">+INT((D3-$D$2+12)/7)-1</f>
+        <f t="shared" ref="E3:E9" si="1">+INT((D3-$D$2+12)/7)-1</f>
         <v>0</v>
       </c>
     </row>
@@ -424,14 +429,14 @@
         <v>44199</v>
       </c>
       <c r="B4">
-        <f>+INT((A4-$A$2+12)/7)-1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D4" s="1">
         <v>44564</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -440,14 +445,14 @@
         <v>44200</v>
       </c>
       <c r="B5">
-        <f>+INT((A5-$A$2+12)/7)-1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>44565</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -456,14 +461,14 @@
         <v>44201</v>
       </c>
       <c r="B6">
-        <f>+INT((A6-$A$2+12)/7)-1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D6" s="1">
         <v>44566</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -472,14 +477,14 @@
         <v>44202</v>
       </c>
       <c r="B7">
-        <f>+INT((A7-$A$2+12)/7)-1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D7" s="1">
         <v>44567</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -488,14 +493,14 @@
         <v>44203</v>
       </c>
       <c r="B8">
-        <f>+INT((A8-$A$2+12)/7)-1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>44568</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -504,14 +509,14 @@
         <v>44204</v>
       </c>
       <c r="B9">
-        <f>+INT((A9-$A$2+12)/7)-1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D9" s="1">
         <v>44569</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -520,8 +525,15 @@
         <v>44228</v>
       </c>
       <c r="B10">
-        <f>+INT((A10-$A$2+12)/7)-1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44570</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10:E12" si="2">+INT((D10-$D$2+12)/7)-1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -529,8 +541,15 @@
         <v>44256</v>
       </c>
       <c r="B11">
-        <f>+INT((A11-$A$2+12)/7)-1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44571</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -538,8 +557,15 @@
         <v>44278</v>
       </c>
       <c r="B12">
-        <f>+INT((A12-$A$2+12)/7)-1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44572</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -547,8 +573,15 @@
         <v>44278</v>
       </c>
       <c r="B13">
-        <f>+INT((A13-$A$2+12)/7)-1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
+      </c>
+      <c r="D13" s="1">
+        <v>44573</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13" si="3">+INT((D13-$D$2+12)/7)-1</f>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -556,7 +589,7 @@
         <v>44334</v>
       </c>
       <c r="B14">
-        <f>+INT((A14-$A$2+12)/7)-1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -565,7 +598,7 @@
         <v>44440</v>
       </c>
       <c r="B15">
-        <f>+INT((A15-$A$2+12)/7)-1</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
@@ -574,27 +607,33 @@
         <v>44453</v>
       </c>
       <c r="B16">
-        <f>+INT((A16-$A$2+12)/7)-1</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <f ca="1">TODAY()</f>
-        <v>44578</v>
+        <v>44622</v>
       </c>
       <c r="B17">
-        <f ca="1">+INT((A17-$A$2+12)/7)-1</f>
-        <v>55</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
       </c>
       <c r="D17" s="2">
         <f ca="1">TODAY()</f>
-        <v>44578</v>
+        <v>44622</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17" ca="1" si="1">+INT((D17-$D$2+12)/7)-1</f>
-        <v>3</v>
-      </c>
+        <f t="shared" ref="E17" ca="1" si="4">+INT((D17-$D$2+12)/7)-1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J21" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/tool/3_公式/date.xlsx
+++ b/tool/3_公式/date.xlsx
@@ -14,7 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>http://www.ab173.com/time/week.php</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -375,7 +379,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.15"/>
@@ -614,22 +618,25 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <f ca="1">TODAY()</f>
-        <v>44622</v>
+        <v>44746</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D17" s="2">
         <f ca="1">TODAY()</f>
-        <v>44622</v>
+        <v>44746</v>
       </c>
       <c r="E17">
         <f t="shared" ref="E17" ca="1" si="4">+INT((D17-$D$2+12)/7)-1</f>
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">

--- a/tool/3_公式/date.xlsx
+++ b/tool/3_公式/date.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="238" yWindow="106" windowWidth="14810" windowHeight="8019"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="date" sheetId="13" r:id="rId1"/>
@@ -14,16 +14,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>http://www.ab173.com/time/week.php</t>
+  </si>
+  <si>
+    <t>机制 1： 1 月 1 日的周为该年的第 1 周，结果为 1</t>
+  </si>
+  <si>
+    <t>机制 2： 该年的之一个星期四的周为该年的第 1 周，结果为 1。此机制是 ISO 8601 指定的，通常称作欧洲周编号机制。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,6 +39,20 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -65,12 +85,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -376,32 +398,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B1" s="3">
         <v>2021</v>
       </c>
       <c r="E1" s="3">
         <v>2022</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H1" s="3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>44197</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B17" si="0">+INT((A2-$A$2+12)/7)-1</f>
+        <f>+INT((A2-$A$2+12)/7)-1</f>
         <v>0</v>
       </c>
       <c r="D2" s="1">
@@ -411,13 +436,20 @@
         <f>+INT((D2-$D$2+12)/7)-1</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G2" s="1">
+        <v>44927</v>
+      </c>
+      <c r="H2">
+        <f>+INT(($G2-$G$2+13)/7)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>44198</v>
       </c>
       <c r="B3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B2:B17" si="0">+INT((A3-$A$2+12)/7)-1</f>
         <v>0</v>
       </c>
       <c r="D3" s="1">
@@ -427,8 +459,15 @@
         <f t="shared" ref="E3:E9" si="1">+INT((D3-$D$2+12)/7)-1</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G3" s="1">
+        <v>44928</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H13" si="2">+INT(($G3-$G$2+13)/7)-1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>44199</v>
       </c>
@@ -443,8 +482,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G4" s="1">
+        <v>44929</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>44200</v>
       </c>
@@ -459,8 +505,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G5" s="1">
+        <v>44930</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>44201</v>
       </c>
@@ -475,24 +528,41 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G6" s="1">
+        <v>44931</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44202</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D7" s="1">
         <v>44567</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G7" s="1">
+        <v>44932</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44203</v>
       </c>
@@ -507,8 +577,19 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G8" s="1">
+        <v>44933</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L8" s="5">
+        <f ca="1">WEEKNUM(TODAY(),2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>44204</v>
       </c>
@@ -523,8 +604,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G9" s="1">
+        <v>44934</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44228</v>
       </c>
@@ -536,11 +624,21 @@
         <v>44570</v>
       </c>
       <c r="E10">
-        <f t="shared" ref="E10:E12" si="2">+INT((D10-$D$2+12)/7)-1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <f t="shared" ref="E10:E12" si="3">+INT((D10-$D$2+12)/7)-1</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>44935</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>44256</v>
       </c>
@@ -552,11 +650,22 @@
         <v>44571</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>44936</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <f ca="1">WEEKNUM(TODAY(),21)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>44278</v>
       </c>
@@ -568,11 +677,18 @@
         <v>44572</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>44937</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>44278</v>
       </c>
@@ -584,53 +700,41 @@
         <v>44573</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13" si="3">+INT((D13-$D$2+12)/7)-1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
-        <v>44334</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
-        <v>44440</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
-        <v>44453</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>37</v>
+        <f t="shared" ref="E13" si="4">+INT((D13-$D$2+12)/7)-1</f>
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>44938</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <f ca="1">TODAY()</f>
-        <v>44746</v>
+        <v>44930</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="D17" s="2">
         <f ca="1">TODAY()</f>
-        <v>44746</v>
+        <v>44930</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17" ca="1" si="4">+INT((D17-$D$2+12)/7)-1</f>
-        <v>27</v>
+        <f t="shared" ref="E17" ca="1" si="5">+INT((D17-$D$2+12)/7)-1</f>
+        <v>53</v>
+      </c>
+      <c r="G17" s="2">
+        <f ca="1">TODAY()</f>
+        <v>44930</v>
+      </c>
+      <c r="H17">
+        <f ca="1">+INT((G17-$G$2+13)/7)-1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">

--- a/tool/3_公式/date.xlsx
+++ b/tool/3_公式/date.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="date" sheetId="13" r:id="rId1"/>
+    <sheet name="week" sheetId="14" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>http://www.ab173.com/time/week.php</t>
   </si>
@@ -24,12 +25,16 @@
   <si>
     <t>机制 2： 该年的之一个星期四的周为该年的第 1 周，结果为 1。此机制是 ISO 8601 指定的，通常称作欧洲周编号机制。</t>
   </si>
+  <si>
+    <t>7e7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,6 +58,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -85,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -93,6 +107,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -400,7 +415,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -449,7 +464,7 @@
         <v>44198</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B2:B17" si="0">+INT((A3-$A$2+12)/7)-1</f>
+        <f t="shared" ref="B3:B17" si="0">+INT((A3-$A$2+12)/7)-1</f>
         <v>0</v>
       </c>
       <c r="D3" s="1">
@@ -586,7 +601,7 @@
       </c>
       <c r="L8" s="5">
         <f ca="1">WEEKNUM(TODAY(),2)</f>
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
@@ -662,7 +677,7 @@
       </c>
       <c r="L11">
         <f ca="1">WEEKNUM(TODAY(),21)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -714,27 +729,27 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <f ca="1">TODAY()</f>
-        <v>44930</v>
+        <v>45070</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="D17" s="2">
         <f ca="1">TODAY()</f>
-        <v>44930</v>
+        <v>45070</v>
       </c>
       <c r="E17">
         <f t="shared" ref="E17" ca="1" si="5">+INT((D17-$D$2+12)/7)-1</f>
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="G17" s="2">
         <f ca="1">TODAY()</f>
-        <v>44930</v>
+        <v>45070</v>
       </c>
       <c r="H17">
         <f ca="1">+INT((G17-$G$2+13)/7)-1</f>
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
@@ -751,4 +766,184 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="7">
+        <v>78</v>
+      </c>
+      <c r="B2" s="7">
+        <f>HEX2DEC(A2)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B12" si="0">HEX2DEC(A5)</f>
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C10" si="1">IF(D6&gt;=B5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D10" si="2">D6-C5*B5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="C11">
+        <f>IF(D12&gt;=B11,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <f>D12-C11*B11</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>80</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="C12">
+        <f>IF(D13&gt;=B12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f>D13-C12*B12</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D13" s="7">
+        <f>+B2</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ref="B20" si="3">HEX2DEC(A20)</f>
+        <v>2023</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/tool/3_公式/date.xlsx
+++ b/tool/3_公式/date.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627A5E3C-8BCA-4C9F-961E-13F18BB03E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="date" sheetId="13" r:id="rId1"/>
     <sheet name="week" sheetId="14" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>http://www.ab173.com/time/week.php</t>
   </si>
@@ -29,12 +30,23 @@
     <t>7e7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>倒着提取时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相差周数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="m\-d"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,14 +66,6 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -106,8 +110,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -126,9 +130,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -166,9 +170,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,7 +207,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -238,7 +242,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -411,21 +415,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="3">
         <v>2021</v>
       </c>
@@ -435,331 +441,463 @@
       <c r="H1" s="3">
         <v>2023</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K1" s="3">
+        <v>2024</v>
+      </c>
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44197</v>
       </c>
       <c r="B2">
-        <f>+INT((A2-$A$2+12)/7)-1</f>
+        <f>+INT((A2-$A$2+5)/7)</f>
         <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>44562</v>
       </c>
       <c r="E2">
-        <f>+INT((D2-$D$2+12)/7)-1</f>
+        <f>+INT((D2-$D$2+5)/7)</f>
         <v>0</v>
       </c>
       <c r="G2" s="1">
         <v>44927</v>
       </c>
       <c r="H2">
-        <f>+INT(($G2-$G$2+13)/7)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+        <f>+INT(($G2-$G$2+6)/7)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>45292</v>
+      </c>
+      <c r="K2">
+        <f>+INT(($J2-$J$2+7)/7)</f>
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="7">
+        <f t="shared" ref="Q2:Q6" ca="1" si="0">+J2+(INT((TODAY()-$J$2+7)/7)-1-$P$2)*7</f>
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44198</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B17" si="0">+INT((A3-$A$2+12)/7)-1</f>
+        <f t="shared" ref="B3:B13" si="1">+INT((A3-$A$2+5)/7)</f>
         <v>0</v>
       </c>
       <c r="D3" s="1">
         <v>44563</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E9" si="1">+INT((D3-$D$2+12)/7)-1</f>
+        <f t="shared" ref="E3:E13" si="2">+INT((D3-$D$2+5)/7)</f>
         <v>0</v>
       </c>
       <c r="G3" s="1">
         <v>44928</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H13" si="2">+INT(($G3-$G$2+13)/7)-1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+        <f t="shared" ref="H3:H13" si="3">+INT(($G3-$G$2+6)/7)</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>45293</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K13" si="4">+INT(($J3-$J$2+7)/7)</f>
+        <v>1</v>
+      </c>
+      <c r="Q3" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>45293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44199</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D4" s="1">
         <v>44564</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G4" s="1">
         <v>44929</v>
       </c>
       <c r="H4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>45294</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q4" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>45294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44200</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>44565</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G5" s="1">
         <v>44930</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>45295</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q5" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>45295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44201</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D6" s="1">
         <v>44566</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G6" s="1">
         <v>44931</v>
       </c>
-      <c r="H6" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>45296</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>45296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44202</v>
       </c>
-      <c r="B7" s="6">
-        <f t="shared" si="0"/>
+      <c r="B7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D7" s="1">
         <v>44567</v>
       </c>
-      <c r="E7" s="6">
-        <f t="shared" si="1"/>
+      <c r="E7">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G7" s="1">
         <v>44932</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>45297</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44203</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>44568</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G8" s="1">
         <v>44933</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L8" s="5">
-        <f ca="1">WEEKNUM(TODAY(),2)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>45298</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44204</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D9" s="1">
         <v>44569</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G9" s="1">
         <v>44934</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>45299</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44228</v>
       </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
+      <c r="B10" s="3">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D10" s="1">
         <v>44570</v>
       </c>
       <c r="E10">
-        <f t="shared" ref="E10:E12" si="3">+INT((D10-$D$2+12)/7)-1</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G10" s="1">
         <v>44935</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H10" s="3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>45300</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44256</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D11" s="1">
         <v>44571</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="3"/>
+      <c r="E11" s="3">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G11" s="1">
         <v>44936</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <f ca="1">WEEKNUM(TODAY(),21)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>45301</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44278</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D12" s="1">
         <v>44572</v>
       </c>
       <c r="E12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G12" s="1">
         <v>44937</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>45302</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44278</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D13" s="1">
         <v>44573</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13" si="4">+INT((D13-$D$2+12)/7)-1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G13" s="1">
         <v>44938</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J13" s="1">
+        <v>45303</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f ca="1">TODAY()</f>
-        <v>45070</v>
+        <v>45361</v>
       </c>
       <c r="B17">
-        <f t="shared" ca="1" si="0"/>
-        <v>125</v>
+        <f t="shared" ref="B3:B17" ca="1" si="5">+INT((A17-$A$2+12)/7)-1</f>
+        <v>167</v>
       </c>
       <c r="D17" s="2">
         <f ca="1">TODAY()</f>
-        <v>45070</v>
+        <v>45361</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17" ca="1" si="5">+INT((D17-$D$2+12)/7)-1</f>
-        <v>73</v>
+        <f t="shared" ref="E17" ca="1" si="6">+INT((D17-$D$2+12)/7)-1</f>
+        <v>114</v>
       </c>
       <c r="G17" s="2">
         <f ca="1">TODAY()</f>
-        <v>45070</v>
+        <v>45361</v>
       </c>
       <c r="H17">
         <f ca="1">+INT((G17-$G$2+13)/7)-1</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+      <c r="J17" s="2">
+        <f ca="1">TODAY()</f>
+        <v>45361</v>
+      </c>
+      <c r="K17">
+        <f ca="1">+INT((J17-$J$2+12)/7)-1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>0</v>
       </c>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J21" s="4"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <f ca="1">WEEKNUM(TODAY(),2)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f ca="1">WEEKNUM(TODAY(),21)</f>
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -769,28 +907,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="7">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>78</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <f>HEX2DEC(A2)</f>
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -807,7 +945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -824,7 +962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -841,7 +979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -858,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10</v>
       </c>
@@ -875,7 +1013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20</v>
       </c>
@@ -892,7 +1030,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>40</v>
       </c>
@@ -909,7 +1047,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>80</v>
       </c>
@@ -926,13 +1064,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D13" s="7">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="6">
         <f>+B2</f>
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
